--- a/Gauss-Legendre Quadrature.xlsx
+++ b/Gauss-Legendre Quadrature.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <r>
-      <t>Energy at 1 scale - W      w</t>
+      <t>Energy at 1 scale - Ws      w</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>*(1-1/s</t>
+      <t>*(Sb-y/s</t>
     </r>
     <r>
       <rPr>
@@ -134,7 +134,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)*1/s</t>
+      <t>)*y/s</t>
     </r>
     <r>
       <rPr>
@@ -256,6 +256,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,196 +445,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1.0001737848573273</c:v>
+                  <c:v>1.0003475999158311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.000916228482418</c:v>
+                  <c:v>1.0018332964394678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0022542567949497</c:v>
+                  <c:v>1.0045135952635971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0041921511471352</c:v>
+                  <c:v>1.0084018764255107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0067357422894023</c:v>
+                  <c:v>1.013516854802994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0098926852834822</c:v>
+                  <c:v>1.0198832357890821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0136725378338445</c:v>
+                  <c:v>1.0275320139585069</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0180868356319384</c:v>
+                  <c:v>1.0365008048870534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0231491805025346</c:v>
+                  <c:v>1.0468342455630082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.028875344859786</c:v>
+                  <c:v>1.0585844752603437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0352833944841815</c:v>
+                  <c:v>1.0718117068946893</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0423938315749823</c:v>
+                  <c:v>1.0865849001055725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0502297602872315</c:v>
+                  <c:v>1.1029825493929757</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0588170773357122</c:v>
+                  <c:v>1.1210936032577397</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0681846907061125</c:v>
+                  <c:v>1.1410185334589136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0783647700578085</c:v>
+                  <c:v>1.1628705773018302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0893930330468047</c:v>
+                  <c:v>1.1867771804509162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1013090725616066</c:v>
+                  <c:v>1.2128816733065062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1141567307753379</c:v>
+                  <c:v>1.2413452207319888</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1279845270071691</c:v>
+                  <c:v>1.2723490931675872</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1428461476964402</c:v>
+                  <c:v>1.3060973173045938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1588010083756655</c:v>
+                  <c:v>1.3428197770124592</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1759148994495932</c:v>
+                  <c:v>1.3827758507475469</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1942607299299055</c:v>
+                  <c:v>1.4262586910527111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2139193861453772</c:v>
+                  <c:v>1.4736002760595694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2349807259818046</c:v>
+                  <c:v>1.5251773935465451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2575447335809828</c:v>
+                  <c:v>1.5814187569572655</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2817228648723862</c:v>
+                  <c:v>1.6428135023366772</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.307639621124286</c:v>
+                  <c:v>1.7099213787340661</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.335434396276854</c:v>
+                  <c:v>1.7833850267593259</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3652636546807895</c:v>
+                  <c:v>1.8639448467923458</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3973035097089519</c:v>
+                  <c:v>1.9524570982449547</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.4317527914750274</c:v>
+                  <c:v>2.0499160558965333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4688367148579178</c:v>
+                  <c:v>2.1574812949145996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.508811288940539</c:v>
+                  <c:v>2.2765115056344105</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5519686482425701</c:v>
+                  <c:v>2.4086066851278702</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5986435381312389</c:v>
+                  <c:v>2.5556611620087661</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6492212562920956</c:v>
+                  <c:v>2.7199307522056779</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7041474459252675</c:v>
+                  <c:v>2.9041185174536124</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7639402642125019</c:v>
+                  <c:v>3.111485255710071</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8292056259299339</c:v>
+                  <c:v>3.3459932219337212</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9006564681527389</c:v>
+                  <c:v>3.6124950099308437</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9791373298682056</c:v>
+                  <c:v>3.9169845704778492</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0656560390301539</c:v>
+                  <c:v>4.2669348715817446</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1614250255056957</c:v>
+                  <c:v>4.6717581408822975</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2679158526209342</c:v>
+                  <c:v>5.1434423145693398</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3869321787830931</c:v>
+                  <c:v>5.6974452261102044</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5207088488995733</c:v>
+                  <c:v>6.3539731009206131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6720487248356557</c:v>
+                  <c:v>7.1398443878958524</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.8445151580586256</c:v>
+                  <c:v>8.0912664844252902</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.0427084190441223</c:v>
+                  <c:v>9.2580745233219819</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2726721543543751</c:v>
+                  <c:v>10.710383029886508</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.5425072899522339</c:v>
+                  <c:v>12.54935789936472</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.8633283705888899</c:v>
+                  <c:v>14.925306098997003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.2508079888500037</c:v>
+                  <c:v>18.069368558071016</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.7277793170199738</c:v>
+                  <c:v>22.351897270441849</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.3288512956478788</c:v>
+                  <c:v>28.396656131128076</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.1091204833714094</c:v>
+                  <c:v>37.321353080348125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.1619567696633082</c:v>
+                  <c:v>51.293624770526087</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.6591978624867103</c:v>
+                  <c:v>74.981707621694426</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.955411067356104</c:v>
+                  <c:v>120.02103165474863</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.918206105184678</c:v>
+                  <c:v>222.55287339676946</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23.376602027725788</c:v>
+                  <c:v>546.4655223626736</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>53.645788857016385</c:v>
+                  <c:v>2877.8706620915827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,7 +1815,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-              <a:t>W</a:t>
+              <a:t>Ws</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
           </a:p>
@@ -1823,196 +1891,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>-5.3458146100801247E-2</c:v>
+                  <c:v>-5.3417888313661219E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12391784557244019</c:v>
+                  <c:v>-0.12342583879225501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.19323516345065825</c:v>
+                  <c:v>-0.19134741689911758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.26061703585645163</c:v>
+                  <c:v>-0.25588189871388689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.32538026634016509</c:v>
+                  <c:v>-0.31587999442973735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.38687608968331838</c:v>
+                  <c:v>-0.37028201244785369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.44449211879544376</c:v>
+                  <c:v>-0.41813207845302119</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.49765826476988223</c:v>
+                  <c:v>-0.45859468786036411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.54585276622169421</c:v>
+                  <c:v>-0.49096946291194093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.58860780825445946</c:v>
+                  <c:v>-0.51470337436971136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.62551458613901545</c:v>
+                  <c:v>-0.52940011139288268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.65622773773974363</c:v>
+                  <c:v>-0.53482640502086098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.68046908946886331</c:v>
+                  <c:v>-0.53091518718289876</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.69803067154324716</c:v>
+                  <c:v>-0.51776553555378668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.70877696712353178</c:v>
+                  <c:v>-0.49563942115979537</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.71264636830666639</c:v>
+                  <c:v>-0.46495534089899015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.7096518203630886</c:v>
+                  <c:v>-0.42627898024725658</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.69988064414283857</c:v>
+                  <c:v>-0.38031111123448352</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.68349353519483502</c:v>
+                  <c:v>-0.32787298611343352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.66072274678645504</c:v>
+                  <c:v>-0.26988953688502837</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.63186947259916648</c:v>
+                  <c:v>-0.20737073397247169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.59730045332769721</c:v>
+                  <c:v>-0.14139149297230963</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.55744383964180444</c:v>
+                  <c:v>-7.3070545830127481E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.51278435189885219</c:v>
+                  <c:v>-3.5487114423659112E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.46385778454197885</c:v>
+                  <c:v>6.6032989790848665E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.411244910206225</c:v>
+                  <c:v>0.1345549327152088</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.35556484511119024</c:v>
+                  <c:v>0.20093975978212508</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.29746794327629006</c:v>
+                  <c:v>0.26417211143761204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.23762829239186686</c:v>
+                  <c:v>0.32331682371317977</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.17673588876109925</c:v>
+                  <c:v>0.37753523699676927</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.1154885725453537</c:v>
+                  <c:v>0.42609930205499436</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.4583807558519604E-2</c:v>
+                  <c:v>0.46840321784438904</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2896079694005668E-3</c:v>
+                  <c:v>0.5039723894414323</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3459811927440685E-2</c:v>
+                  <c:v>0.53246955238070193</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11928004199355802</c:v>
+                  <c:v>0.55369797057396231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17213660473097303</c:v>
+                  <c:v>0.56760167748774382</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.221456563745421</c:v>
+                  <c:v>0.57426279304927663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26671506275818946</c:v>
+                  <c:v>0.57389601049388117</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.30744220252989224</c:v>
+                  <c:v>0.56684040675053382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.34322939448309969</c:v>
+                  <c:v>0.55354878572896593</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.37373511858359554</c:v>
+                  <c:v>0.5345748148447409</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.39869001850730162</c:v>
+                  <c:v>0.51055826022665995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.41790127329275384</c:v>
+                  <c:v>0.48220866435025472</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.431256191499997</c:v>
+                  <c:v>0.45028784053636828</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.43872498130212284</c:v>
+                  <c:v>0.41559158121426693</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.44036265785561163</c:v>
+                  <c:v>0.37893099062137547</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.43631005765511188</c:v>
+                  <c:v>0.3411138574310788</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.4267939382976273</c:v>
+                  <c:v>0.30292647859333066</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.41212615107691675</c:v>
+                  <c:v>0.26511633256117589</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.39270188301477332</c:v>
+                  <c:v>0.22837597837212853</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.36899697422307187</c:v>
+                  <c:v>0.1933285272530442</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.34156432578931384</c:v>
+                  <c:v>0.16051499619048076</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.31102942259837923</c:v>
+                  <c:v>0.13038380908384425</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.27808500455496793</c:v>
+                  <c:v>0.10328266164499451</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.24348492846692577</c:v>
+                  <c:v>7.9452912214021745E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.20803727130556493</c:v>
+                  <c:v>5.9026603311559692E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.17259673359876895</c:v>
+                  <c:v>4.2026159298520119E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.13805640927673077</c:v>
+                  <c:v>2.8366745263368735E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.10533899536628676</c:v>
+                  <c:v>1.7861212518655804E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.5387521665748941E-2</c:v>
+                  <c:v>1.022749816160467E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9155687731245887E-2</c:v>
+                  <c:v>5.0982912863235018E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7597906197388448E-2</c:v>
+                  <c:v>2.0327277448642356E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1659189175102407E-2</c:v>
+                  <c:v>5.2982930032573227E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2649582861784734E-3</c:v>
+                  <c:v>4.3354166981333381E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4532,7 +4600,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4789,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4832,14 +4900,14 @@
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D33" si="0">(($C2+1)/2)^(1/(1-$G$2))</f>
-        <v>1.0001737848573273</v>
+        <v>1.0003475999158311</v>
       </c>
       <c r="E2" s="2">
         <f>$B2*(7-10/$D2)*10/$D2</f>
-        <v>-5.3458146100801247E-2</v>
+        <v>-5.3417888313661219E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4854,11 +4922,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>1.000916228482418</v>
+        <v>1.0018332964394678</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E65" si="1">$B3*(7-10/$D3)*10/$D3</f>
-        <v>-0.12391784557244019</v>
+        <v>-0.12342583879225501</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4873,11 +4941,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.0022542567949497</v>
+        <v>1.0045135952635971</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19323516345065825</v>
+        <v>-0.19134741689911758</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4892,11 +4960,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.0041921511471352</v>
+        <v>1.0084018764255107</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26061703585645163</v>
+        <v>-0.25588189871388689</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4911,11 +4979,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.0067357422894023</v>
+        <v>1.013516854802994</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.32538026634016509</v>
+        <v>-0.31587999442973735</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4930,11 +4998,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.0098926852834822</v>
+        <v>1.0198832357890821</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38687608968331838</v>
+        <v>-0.37028201244785369</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4949,11 +5017,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0136725378338445</v>
+        <v>1.0275320139585069</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.44449211879544376</v>
+        <v>-0.41813207845302119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4968,11 +5036,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.0180868356319384</v>
+        <v>1.0365008048870534</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49765826476988223</v>
+        <v>-0.45859468786036411</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4987,11 +5055,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.0231491805025346</v>
+        <v>1.0468342455630082</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.54585276622169421</v>
+        <v>-0.49096946291194093</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5006,11 +5074,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.028875344859786</v>
+        <v>1.0585844752603437</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>-0.58860780825445946</v>
+        <v>-0.51470337436971136</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5025,11 +5093,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.0352833944841815</v>
+        <v>1.0718117068946893</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>-0.62551458613901545</v>
+        <v>-0.52940011139288268</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5044,11 +5112,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0423938315749823</v>
+        <v>1.0865849001055725</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.65622773773974363</v>
+        <v>-0.53482640502086098</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5063,11 +5131,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.0502297602872315</v>
+        <v>1.1029825493929757</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.68046908946886331</v>
+        <v>-0.53091518718289876</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5082,11 +5150,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.0588170773357122</v>
+        <v>1.1210936032577397</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>-0.69803067154324716</v>
+        <v>-0.51776553555378668</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5101,11 +5169,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.0681846907061125</v>
+        <v>1.1410185334589136</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>-0.70877696712353178</v>
+        <v>-0.49563942115979537</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5120,11 +5188,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1.0783647700578085</v>
+        <v>1.1628705773018302</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>-0.71264636830666639</v>
+        <v>-0.46495534089899015</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5139,11 +5207,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.0893930330468047</v>
+        <v>1.1867771804509162</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>-0.7096518203630886</v>
+        <v>-0.42627898024725658</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5158,11 +5226,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1.1013090725616066</v>
+        <v>1.2128816733065062</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>-0.69988064414283857</v>
+        <v>-0.38031111123448352</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5177,11 +5245,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>1.1141567307753379</v>
+        <v>1.2413452207319888</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>-0.68349353519483502</v>
+        <v>-0.32787298611343352</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5196,11 +5264,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.1279845270071691</v>
+        <v>1.2723490931675872</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.66072274678645504</v>
+        <v>-0.26988953688502837</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5215,11 +5283,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>1.1428461476964402</v>
+        <v>1.3060973173045938</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>-0.63186947259916648</v>
+        <v>-0.20737073397247169</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5234,11 +5302,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>1.1588010083756655</v>
+        <v>1.3428197770124592</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>-0.59730045332769721</v>
+        <v>-0.14139149297230963</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5253,11 +5321,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>1.1759148994495932</v>
+        <v>1.3827758507475469</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>-0.55744383964180444</v>
+        <v>-7.3070545830127481E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5272,11 +5340,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>1.1942607299299055</v>
+        <v>1.4262586910527111</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>-0.51278435189885219</v>
+        <v>-3.5487114423659112E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5291,11 +5359,11 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.2139193861453772</v>
+        <v>1.4736002760595694</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>-0.46385778454197885</v>
+        <v>6.6032989790848665E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5310,11 +5378,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>1.2349807259818046</v>
+        <v>1.5251773935465451</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>-0.411244910206225</v>
+        <v>0.1345549327152088</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5329,11 +5397,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.2575447335809828</v>
+        <v>1.5814187569572655</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35556484511119024</v>
+        <v>0.20093975978212508</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5348,11 +5416,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.2817228648723862</v>
+        <v>1.6428135023366772</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>-0.29746794327629006</v>
+        <v>0.26417211143761204</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5367,11 +5435,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.307639621124286</v>
+        <v>1.7099213787340661</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>-0.23762829239186686</v>
+        <v>0.32331682371317977</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5386,11 +5454,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>1.335434396276854</v>
+        <v>1.7833850267593259</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>-0.17673588876109925</v>
+        <v>0.37753523699676927</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5405,11 +5473,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>1.3652636546807895</v>
+        <v>1.8639448467923458</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>-0.1154885725453537</v>
+        <v>0.42609930205499436</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5424,11 +5492,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>1.3973035097089519</v>
+        <v>1.9524570982449547</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>-5.4583807558519604E-2</v>
+        <v>0.46840321784438904</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5443,11 +5511,11 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ref="D34:D65" si="2">(($C34+1)/2)^(1/(1-$G$2))</f>
-        <v>1.4317527914750274</v>
+        <v>2.0499160558965333</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>5.2896079694005668E-3</v>
+        <v>0.5039723894414323</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5462,11 +5530,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
-        <v>1.4688367148579178</v>
+        <v>2.1574812949145996</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>6.3459811927440685E-2</v>
+        <v>0.53246955238070193</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5481,11 +5549,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
-        <v>1.508811288940539</v>
+        <v>2.2765115056344105</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>0.11928004199355802</v>
+        <v>0.55369797057396231</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5500,11 +5568,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
-        <v>1.5519686482425701</v>
+        <v>2.4086066851278702</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>0.17213660473097303</v>
+        <v>0.56760167748774382</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5519,11 +5587,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
-        <v>1.5986435381312389</v>
+        <v>2.5556611620087661</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>0.221456563745421</v>
+        <v>0.57426279304927663</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5538,11 +5606,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
-        <v>1.6492212562920956</v>
+        <v>2.7199307522056779</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>0.26671506275818946</v>
+        <v>0.57389601049388117</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5557,11 +5625,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
-        <v>1.7041474459252675</v>
+        <v>2.9041185174536124</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>0.30744220252989224</v>
+        <v>0.56684040675053382</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5576,11 +5644,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
-        <v>1.7639402642125019</v>
+        <v>3.111485255710071</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>0.34322939448309969</v>
+        <v>0.55354878572896593</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5595,11 +5663,11 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="2"/>
-        <v>1.8292056259299339</v>
+        <v>3.3459932219337212</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>0.37373511858359554</v>
+        <v>0.5345748148447409</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5614,11 +5682,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
-        <v>1.9006564681527389</v>
+        <v>3.6124950099308437</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>0.39869001850730162</v>
+        <v>0.51055826022665995</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5633,11 +5701,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="2"/>
-        <v>1.9791373298682056</v>
+        <v>3.9169845704778492</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>0.41790127329275384</v>
+        <v>0.48220866435025472</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5652,11 +5720,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="2"/>
-        <v>2.0656560390301539</v>
+        <v>4.2669348715817446</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>0.431256191499997</v>
+        <v>0.45028784053636828</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5671,11 +5739,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="2"/>
-        <v>2.1614250255056957</v>
+        <v>4.6717581408822975</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>0.43872498130212284</v>
+        <v>0.41559158121426693</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5690,11 +5758,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" si="2"/>
-        <v>2.2679158526209342</v>
+        <v>5.1434423145693398</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>0.44036265785561163</v>
+        <v>0.37893099062137547</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5709,11 +5777,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="2"/>
-        <v>2.3869321787830931</v>
+        <v>5.6974452261102044</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>0.43631005765511188</v>
+        <v>0.3411138574310788</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5728,11 +5796,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="2"/>
-        <v>2.5207088488995733</v>
+        <v>6.3539731009206131</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>0.4267939382976273</v>
+        <v>0.30292647859333066</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5747,11 +5815,11 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="2"/>
-        <v>2.6720487248356557</v>
+        <v>7.1398443878958524</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>0.41212615107691675</v>
+        <v>0.26511633256117589</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5766,11 +5834,11 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="2"/>
-        <v>2.8445151580586256</v>
+        <v>8.0912664844252902</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>0.39270188301477332</v>
+        <v>0.22837597837212853</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5785,11 +5853,11 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="2"/>
-        <v>3.0427084190441223</v>
+        <v>9.2580745233219819</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>0.36899697422307187</v>
+        <v>0.1933285272530442</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5804,11 +5872,11 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="2"/>
-        <v>3.2726721543543751</v>
+        <v>10.710383029886508</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0.34156432578931384</v>
+        <v>0.16051499619048076</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5823,11 +5891,11 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="2"/>
-        <v>3.5425072899522339</v>
+        <v>12.54935789936472</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>0.31102942259837923</v>
+        <v>0.13038380908384425</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5842,11 +5910,11 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="2"/>
-        <v>3.8633283705888899</v>
+        <v>14.925306098997003</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>0.27808500455496793</v>
+        <v>0.10328266164499451</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5861,11 +5929,11 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="2"/>
-        <v>4.2508079888500037</v>
+        <v>18.069368558071016</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>0.24348492846692577</v>
+        <v>7.9452912214021745E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5880,11 +5948,11 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="2"/>
-        <v>4.7277793170199738</v>
+        <v>22.351897270441849</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>0.20803727130556493</v>
+        <v>5.9026603311559692E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5899,11 +5967,11 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" si="2"/>
-        <v>5.3288512956478788</v>
+        <v>28.396656131128076</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>0.17259673359876895</v>
+        <v>4.2026159298520119E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5918,11 +5986,11 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" si="2"/>
-        <v>6.1091204833714094</v>
+        <v>37.321353080348125</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>0.13805640927673077</v>
+        <v>2.8366745263368735E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5937,11 +6005,11 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" si="2"/>
-        <v>7.1619567696633082</v>
+        <v>51.293624770526087</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
-        <v>0.10533899536628676</v>
+        <v>1.7861212518655804E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5956,11 +6024,11 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" si="2"/>
-        <v>8.6591978624867103</v>
+        <v>74.981707621694426</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>7.5387521665748941E-2</v>
+        <v>1.022749816160467E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5975,11 +6043,11 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" si="2"/>
-        <v>10.955411067356104</v>
+        <v>120.02103165474863</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>4.9155687731245887E-2</v>
+        <v>5.0982912863235018E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5994,11 +6062,11 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" si="2"/>
-        <v>14.918206105184678</v>
+        <v>222.55287339676946</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="1"/>
-        <v>2.7597906197388448E-2</v>
+        <v>2.0327277448642356E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6013,11 +6081,11 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" si="2"/>
-        <v>23.376602027725788</v>
+        <v>546.4655223626736</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="1"/>
-        <v>1.1659189175102407E-2</v>
+        <v>5.2982930032573227E-4</v>
       </c>
     </row>
     <row r="65" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6032,11 +6100,11 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" si="2"/>
-        <v>53.645788857016385</v>
+        <v>2877.8706620915827</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
-        <v>2.2649582861784734E-3</v>
+        <v>4.3354166981333381E-5</v>
       </c>
     </row>
     <row r="66" spans="1:65" ht="18" x14ac:dyDescent="0.25">

--- a/Gauss-Legendre Quadrature.xlsx
+++ b/Gauss-Legendre Quadrature.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>i</t>
   </si>
@@ -147,6 +147,10 @@
       </rPr>
       <t>i</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total energy loss - W sum(Ws)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,196 +449,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1.0003475999158311</c:v>
+                  <c:v>1.0004456627614562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0018332964394678</c:v>
+                  <c:v>1.0023509874557033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0045135952635971</c:v>
+                  <c:v>1.0057903400218202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0084018764255107</c:v>
+                  <c:v>1.0107843739690003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.013516854802994</c:v>
+                  <c:v>1.0173622283025501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0198832357890821</c:v>
+                  <c:v>1.0255624695425589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0275320139585069</c:v>
+                  <c:v>1.0354336114365708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0365008048870534</c:v>
+                  <c:v>1.0470347160936961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0468342455630082</c:v>
+                  <c:v>1.0604361265734474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0585844752603437</c:v>
+                  <c:v>1.0757203519793976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0718117068946893</c:v>
+                  <c:v>1.0929831251853528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0865849001055725</c:v>
+                  <c:v>1.1123346566099723</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1029825493929757</c:v>
+                  <c:v>1.1339011121960794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1210936032577397</c:v>
+                  <c:v>1.1578263496176822</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1410185334589136</c:v>
+                  <c:v>1.1842739538525917</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1628705773018302</c:v>
+                  <c:v>1.2134296218891076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1867771804509162</c:v>
+                  <c:v>1.2455039568501338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2128816733065062</c:v>
+                  <c:v>1.2807357446938739</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2413452207319888</c:v>
+                  <c:v>1.3193958024986252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2723490931675872</c:v>
+                  <c:v>1.3617915069461621</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3060973173045938</c:v>
+                  <c:v>1.4082721359988744</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3428197770124592</c:v>
+                  <c:v>1.4592351872379916</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3827758507475469</c:v>
+                  <c:v>1.5151338746145182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4262586910527111</c:v>
+                  <c:v>1.576486053720819</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4736002760595694</c:v>
+                  <c:v>1.6438848871060896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5251773935465451</c:v>
+                  <c:v>1.7180116396061094</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5814187569572655</c:v>
+                  <c:v>1.7996510944571431</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6428135023366772</c:v>
+                  <c:v>1.8897102112909265</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7099213787340661</c:v>
+                  <c:v>1.989240816710246</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7833850267593259</c:v>
+                  <c:v>2.0994673403692881</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8639448467923458</c:v>
+                  <c:v>2.2218209027524298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9524570982449547</c:v>
+                  <c:v>2.3579814508073218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0499160558965333</c:v>
+                  <c:v>2.5099301602753101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1574812949145996</c:v>
+                  <c:v>2.6800150300795123</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2765115056344105</c:v>
+                  <c:v>2.8710335576989556</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4086066851278702</c:v>
+                  <c:v>3.0863377111120185</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5556611620087661</c:v>
+                  <c:v>3.3299682579482166</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.7199307522056779</c:v>
+                  <c:v>3.606828106209</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9041185174536124</c:v>
+                  <c:v>3.9229079991227502</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.111485255710071</c:v>
+                  <c:v>4.2855832159540324</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.3459932219337212</c:v>
+                  <c:v>4.7040076746142638</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6124950099308437</c:v>
+                  <c:v>5.1896432882877681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.9169845704778492</c:v>
+                  <c:v>5.7569796373620603</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2669348715817446</c:v>
+                  <c:v>6.4245252989936601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.6717581408822975</c:v>
+                  <c:v>7.2161930383740751</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.1434423145693398</c:v>
+                  <c:v>8.1632658513710616</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.6974452261102044</c:v>
+                  <c:v>9.3072357846373635</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.3539731009206131</c:v>
+                  <c:v>10.703981470961171</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.1398443878958524</c:v>
+                  <c:v>12.430046459506629</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0912664844252902</c:v>
+                  <c:v>14.592299142650694</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.2580745233219819</c:v>
+                  <c:v>17.343193400226816</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.710383029886508</c:v>
+                  <c:v>20.905609015235829</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.54935789936472</c:v>
+                  <c:v>25.614690300317754</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.925306098997003</c:v>
+                  <c:v>31.991146415984765</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.069368558071016</c:v>
+                  <c:v>40.875714217786509</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.351897270441849</c:v>
+                  <c:v>53.689609734013111</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28.396656131128076</c:v>
+                  <c:v>72.973147704324177</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37.321353080348125</c:v>
+                  <c:v>103.59289623620698</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51.293624770526087</c:v>
+                  <c:v>155.73598073371477</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>74.981707621694426</c:v>
+                  <c:v>253.38965514283512</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>120.02103165474863</c:v>
+                  <c:v>463.14241756543618</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>222.55287339676946</c:v>
+                  <c:v>1022.1855824676683</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>546.4655223626736</c:v>
+                  <c:v>3233.6711696536158</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2877.8706620915827</c:v>
+                  <c:v>27208.635259002345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,196 +1895,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>-5.3417888313661219E-2</c:v>
+                  <c:v>-5.3395186626388577E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12342583879225501</c:v>
+                  <c:v>-0.12314880096129538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.19134741689911758</c:v>
+                  <c:v>-0.19028729124278715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25588189871388689</c:v>
+                  <c:v>-0.2532329517566172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.31587999442973735</c:v>
+                  <c:v>-0.31059214808201679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.37028201244785369</c:v>
+                  <c:v>-0.36110366202784955</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.41813207845302119</c:v>
+                  <c:v>-0.40366161898968489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.45859468786036411</c:v>
+                  <c:v>-0.43733896576805731</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.49096946291194093</c:v>
+                  <c:v>-0.4614071242020491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.51470337436971136</c:v>
+                  <c:v>-0.47535090250565204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.52940011139288268</c:v>
+                  <c:v>-0.4788782433521156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.53482640502086098</c:v>
+                  <c:v>-0.47192458669100934</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.53091518718289876</c:v>
+                  <c:v>-0.45465178000004819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.51776553555378668</c:v>
+                  <c:v>-0.42744161384708707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.49563942115979537</c:v>
+                  <c:v>-0.39088420003751828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.46495534089899015</c:v>
+                  <c:v>-0.34576154134046233</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.42627898024725658</c:v>
+                  <c:v>-0.29302676279896372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.38031111123448352</c:v>
+                  <c:v>-0.23377958186774947</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.32787298611343352</c:v>
+                  <c:v>-0.16923868531439609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.26988953688502837</c:v>
+                  <c:v>-0.10071175263919821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.20737073397247169</c:v>
+                  <c:v>-2.9563916921554252E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.14139149297230963</c:v>
+                  <c:v>4.281451671911083E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7.3070545830127481E-2</c:v>
+                  <c:v>0.11504026803441691</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.5487114423659112E-3</c:v>
+                  <c:v>0.18576838249211006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.6032989790848665E-2</c:v>
+                  <c:v>0.25372186190896906</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1345549327152088</c:v>
+                  <c:v>0.31771890844187983</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20093975978212508</c:v>
+                  <c:v>0.37669714179207653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.26417211143761204</c:v>
+                  <c:v>0.42973424196674942</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32331682371317977</c:v>
+                  <c:v>0.47606457583712103</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.37753523699676927</c:v>
+                  <c:v>0.51509148188404263</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.42609930205499436</c:v>
+                  <c:v>0.54639501052617134</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46840321784438904</c:v>
+                  <c:v>0.56973504372183081</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5039723894414323</c:v>
+                  <c:v>0.5850498435136553</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.53246955238070193</c:v>
+                  <c:v>0.59245020129021653</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.55369797057396231</c:v>
+                  <c:v>0.59220947437457439</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.56760167748774382</c:v>
+                  <c:v>0.58474990097580526</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.57426279304927663</c:v>
+                  <c:v>0.57062567576107359</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.57389601049388117</c:v>
+                  <c:v>0.55050334395145972</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.56684040675053382</c:v>
+                  <c:v>0.52514013003250692</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.55354878572896593</c:v>
+                  <c:v>0.49536085655717788</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5345748148447409</c:v>
+                  <c:v>0.46203412833483287</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.51055826022665995</c:v>
+                  <c:v>0.4260484573645229</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.48220866435025472</c:v>
+                  <c:v>0.38828898459258854</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.45028784053636828</c:v>
+                  <c:v>0.34961541693128168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.41559158121426693</c:v>
+                  <c:v>0.31084174348004284</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.37893099062137547</c:v>
+                  <c:v>0.27271822554123959</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3411138574310788</c:v>
+                  <c:v>0.2359160732349509</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30292647859333066</c:v>
+                  <c:v>0.20101513005474361</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26511633256117589</c:v>
+                  <c:v>0.16849478859069236</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.22837597837212853</c:v>
+                  <c:v>0.1387282590711047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1933285272530442</c:v>
+                  <c:v>0.111980210614811</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.16051499619048076</c:v>
+                  <c:v>8.8407706409012576E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13038380908384425</c:v>
+                  <c:v>6.8064261615534333E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.10328266164499451</c:v>
+                  <c:v>5.090676969627865E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.9452912214021745E-2</c:v>
+                  <c:v>3.6804971893850444E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.9026603311559692E-2</c:v>
+                  <c:v>2.5553088505366209E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.2026159298520119E-2</c:v>
+                  <c:v>1.6883192003713084E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8366745263368735E-2</c:v>
+                  <c:v>1.047988390853037E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7861212518655804E-2</c:v>
+                  <c:v>5.9958434701556495E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.022749816160467E-2</c:v>
+                  <c:v>3.0678532063820002E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0982912863235018E-3</c:v>
+                  <c:v>1.332987445606977E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0327277448642356E-3</c:v>
+                  <c:v>4.4480741770188081E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.2982930032573227E-4</c:v>
+                  <c:v>8.9732093232471847E-5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3354166981333381E-5</c:v>
+                  <c:v>4.5876279803145357E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4472,13 +4476,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>58733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>346364</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>574964</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
@@ -4504,11 +4508,11 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>60267</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>134043</xdr:rowOff>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1094509</xdr:colOff>
+      <xdr:colOff>87086</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>193964</xdr:rowOff>
     </xdr:to>
@@ -4532,13 +4536,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1113213</xdr:colOff>
+      <xdr:colOff>79071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>182533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>387926</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>572984</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>193964</xdr:rowOff>
     </xdr:to>
@@ -4568,9 +4572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1094509</xdr:colOff>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>193964</xdr:rowOff>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4857,18 +4861,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
     <col min="15" max="15" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4887,8 +4892,11 @@
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4900,17 +4908,21 @@
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D33" si="0">(($C2+1)/2)^(1/(1-$G$2))</f>
-        <v>1.0003475999158311</v>
+        <v>1.0004456627614562</v>
       </c>
       <c r="E2" s="2">
         <f>$B2*(7-10/$D2)*10/$D2</f>
-        <v>-5.3417888313661219E-2</v>
+        <v>-5.3395186626388577E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUMIF(E2:E65,"&gt;0")</f>
+        <v>11.698587962885112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4922,14 +4934,14 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>1.0018332964394678</v>
+        <v>1.0023509874557033</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E65" si="1">$B3*(7-10/$D3)*10/$D3</f>
-        <v>-0.12342583879225501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.12314880096129538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4941,14 +4953,14 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.0045135952635971</v>
+        <v>1.0057903400218202</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19134741689911758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.19028729124278715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4960,14 +4972,14 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.0084018764255107</v>
+        <v>1.0107843739690003</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.25588189871388689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.2532329517566172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.013516854802994</v>
+        <v>1.0173622283025501</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.31587999442973735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.31059214808201679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4998,14 +5010,14 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.0198832357890821</v>
+        <v>1.0255624695425589</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.37028201244785369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.36110366202784955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5017,14 +5029,14 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0275320139585069</v>
+        <v>1.0354336114365708</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.41813207845302119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.40366161898968489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5036,14 +5048,14 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.0365008048870534</v>
+        <v>1.0470347160936961</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>-0.45859468786036411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.43733896576805731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5055,14 +5067,14 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.0468342455630082</v>
+        <v>1.0604361265734474</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49096946291194093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.4614071242020491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5074,14 +5086,14 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.0585844752603437</v>
+        <v>1.0757203519793976</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>-0.51470337436971136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.47535090250565204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5093,14 +5105,14 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.0718117068946893</v>
+        <v>1.0929831251853528</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>-0.52940011139288268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.4788782433521156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0865849001055725</v>
+        <v>1.1123346566099723</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.53482640502086098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.47192458669100934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5131,14 +5143,14 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.1029825493929757</v>
+        <v>1.1339011121960794</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.53091518718289876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.45465178000004819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5150,14 +5162,14 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.1210936032577397</v>
+        <v>1.1578263496176822</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>-0.51776553555378668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>-0.42744161384708707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5169,11 +5181,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.1410185334589136</v>
+        <v>1.1842739538525917</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49563942115979537</v>
+        <v>-0.39088420003751828</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5188,11 +5200,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1.1628705773018302</v>
+        <v>1.2134296218891076</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>-0.46495534089899015</v>
+        <v>-0.34576154134046233</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5207,11 +5219,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.1867771804509162</v>
+        <v>1.2455039568501338</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>-0.42627898024725658</v>
+        <v>-0.29302676279896372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5226,11 +5238,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1.2128816733065062</v>
+        <v>1.2807357446938739</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>-0.38031111123448352</v>
+        <v>-0.23377958186774947</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5245,11 +5257,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>1.2413452207319888</v>
+        <v>1.3193958024986252</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>-0.32787298611343352</v>
+        <v>-0.16923868531439609</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5264,11 +5276,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.2723490931675872</v>
+        <v>1.3617915069461621</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>-0.26988953688502837</v>
+        <v>-0.10071175263919821</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5283,11 +5295,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>1.3060973173045938</v>
+        <v>1.4082721359988744</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>-0.20737073397247169</v>
+        <v>-2.9563916921554252E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5302,11 +5314,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>1.3428197770124592</v>
+        <v>1.4592351872379916</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>-0.14139149297230963</v>
+        <v>4.281451671911083E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5321,11 +5333,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>1.3827758507475469</v>
+        <v>1.5151338746145182</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>-7.3070545830127481E-2</v>
+        <v>0.11504026803441691</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5340,11 +5352,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>1.4262586910527111</v>
+        <v>1.576486053720819</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>-3.5487114423659112E-3</v>
+        <v>0.18576838249211006</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5359,11 +5371,11 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.4736002760595694</v>
+        <v>1.6438848871060896</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>6.6032989790848665E-2</v>
+        <v>0.25372186190896906</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5378,11 +5390,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>1.5251773935465451</v>
+        <v>1.7180116396061094</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>0.1345549327152088</v>
+        <v>0.31771890844187983</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5397,11 +5409,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.5814187569572655</v>
+        <v>1.7996510944571431</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>0.20093975978212508</v>
+        <v>0.37669714179207653</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5416,11 +5428,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.6428135023366772</v>
+        <v>1.8897102112909265</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>0.26417211143761204</v>
+        <v>0.42973424196674942</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5435,11 +5447,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.7099213787340661</v>
+        <v>1.989240816710246</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>0.32331682371317977</v>
+        <v>0.47606457583712103</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5454,11 +5466,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>1.7833850267593259</v>
+        <v>2.0994673403692881</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>0.37753523699676927</v>
+        <v>0.51509148188404263</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5473,11 +5485,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>1.8639448467923458</v>
+        <v>2.2218209027524298</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>0.42609930205499436</v>
+        <v>0.54639501052617134</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5492,11 +5504,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>1.9524570982449547</v>
+        <v>2.3579814508073218</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>0.46840321784438904</v>
+        <v>0.56973504372183081</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5511,11 +5523,11 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ref="D34:D65" si="2">(($C34+1)/2)^(1/(1-$G$2))</f>
-        <v>2.0499160558965333</v>
+        <v>2.5099301602753101</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>0.5039723894414323</v>
+        <v>0.5850498435136553</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5530,11 +5542,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
-        <v>2.1574812949145996</v>
+        <v>2.6800150300795123</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>0.53246955238070193</v>
+        <v>0.59245020129021653</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5549,11 +5561,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
-        <v>2.2765115056344105</v>
+        <v>2.8710335576989556</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>0.55369797057396231</v>
+        <v>0.59220947437457439</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5568,11 +5580,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
-        <v>2.4086066851278702</v>
+        <v>3.0863377111120185</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>0.56760167748774382</v>
+        <v>0.58474990097580526</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5587,11 +5599,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
-        <v>2.5556611620087661</v>
+        <v>3.3299682579482166</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>0.57426279304927663</v>
+        <v>0.57062567576107359</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5606,11 +5618,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
-        <v>2.7199307522056779</v>
+        <v>3.606828106209</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>0.57389601049388117</v>
+        <v>0.55050334395145972</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5625,11 +5637,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
-        <v>2.9041185174536124</v>
+        <v>3.9229079991227502</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>0.56684040675053382</v>
+        <v>0.52514013003250692</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5644,11 +5656,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="2"/>
-        <v>3.111485255710071</v>
+        <v>4.2855832159540324</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>0.55354878572896593</v>
+        <v>0.49536085655717788</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5663,11 +5675,11 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="2"/>
-        <v>3.3459932219337212</v>
+        <v>4.7040076746142638</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>0.5345748148447409</v>
+        <v>0.46203412833483287</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5682,11 +5694,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="2"/>
-        <v>3.6124950099308437</v>
+        <v>5.1896432882877681</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>0.51055826022665995</v>
+        <v>0.4260484573645229</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5701,11 +5713,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="2"/>
-        <v>3.9169845704778492</v>
+        <v>5.7569796373620603</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>0.48220866435025472</v>
+        <v>0.38828898459258854</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5720,11 +5732,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="2"/>
-        <v>4.2669348715817446</v>
+        <v>6.4245252989936601</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>0.45028784053636828</v>
+        <v>0.34961541693128168</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5739,11 +5751,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="2"/>
-        <v>4.6717581408822975</v>
+        <v>7.2161930383740751</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>0.41559158121426693</v>
+        <v>0.31084174348004284</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5758,11 +5770,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" si="2"/>
-        <v>5.1434423145693398</v>
+        <v>8.1632658513710616</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>0.37893099062137547</v>
+        <v>0.27271822554123959</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5777,11 +5789,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="2"/>
-        <v>5.6974452261102044</v>
+        <v>9.3072357846373635</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>0.3411138574310788</v>
+        <v>0.2359160732349509</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5796,11 +5808,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="2"/>
-        <v>6.3539731009206131</v>
+        <v>10.703981470961171</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>0.30292647859333066</v>
+        <v>0.20101513005474361</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5815,11 +5827,11 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="2"/>
-        <v>7.1398443878958524</v>
+        <v>12.430046459506629</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>0.26511633256117589</v>
+        <v>0.16849478859069236</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5834,11 +5846,11 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="2"/>
-        <v>8.0912664844252902</v>
+        <v>14.592299142650694</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>0.22837597837212853</v>
+        <v>0.1387282590711047</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5853,11 +5865,11 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="2"/>
-        <v>9.2580745233219819</v>
+        <v>17.343193400226816</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>0.1933285272530442</v>
+        <v>0.111980210614811</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5872,11 +5884,11 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="2"/>
-        <v>10.710383029886508</v>
+        <v>20.905609015235829</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0.16051499619048076</v>
+        <v>8.8407706409012576E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5891,11 +5903,11 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="2"/>
-        <v>12.54935789936472</v>
+        <v>25.614690300317754</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>0.13038380908384425</v>
+        <v>6.8064261615534333E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5910,11 +5922,11 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="2"/>
-        <v>14.925306098997003</v>
+        <v>31.991146415984765</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>0.10328266164499451</v>
+        <v>5.090676969627865E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5929,11 +5941,11 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="2"/>
-        <v>18.069368558071016</v>
+        <v>40.875714217786509</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>7.9452912214021745E-2</v>
+        <v>3.6804971893850444E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5948,11 +5960,11 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" si="2"/>
-        <v>22.351897270441849</v>
+        <v>53.689609734013111</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>5.9026603311559692E-2</v>
+        <v>2.5553088505366209E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5967,11 +5979,11 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" si="2"/>
-        <v>28.396656131128076</v>
+        <v>72.973147704324177</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>4.2026159298520119E-2</v>
+        <v>1.6883192003713084E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -5986,11 +5998,11 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" si="2"/>
-        <v>37.321353080348125</v>
+        <v>103.59289623620698</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>2.8366745263368735E-2</v>
+        <v>1.047988390853037E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6005,11 +6017,11 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" si="2"/>
-        <v>51.293624770526087</v>
+        <v>155.73598073371477</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
-        <v>1.7861212518655804E-2</v>
+        <v>5.9958434701556495E-3</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6024,11 +6036,11 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" si="2"/>
-        <v>74.981707621694426</v>
+        <v>253.38965514283512</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>1.022749816160467E-2</v>
+        <v>3.0678532063820002E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6043,11 +6055,11 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" si="2"/>
-        <v>120.02103165474863</v>
+        <v>463.14241756543618</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>5.0982912863235018E-3</v>
+        <v>1.332987445606977E-3</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6062,11 +6074,11 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" si="2"/>
-        <v>222.55287339676946</v>
+        <v>1022.1855824676683</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="1"/>
-        <v>2.0327277448642356E-3</v>
+        <v>4.4480741770188081E-4</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6081,11 +6093,11 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" si="2"/>
-        <v>546.4655223626736</v>
+        <v>3233.6711696536158</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="1"/>
-        <v>5.2982930032573227E-4</v>
+        <v>8.9732093232471847E-5</v>
       </c>
     </row>
     <row r="65" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -6100,11 +6112,11 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" si="2"/>
-        <v>2877.8706620915827</v>
+        <v>27208.635259002345</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
-        <v>4.3354166981333381E-5</v>
+        <v>4.5876279803145357E-6</v>
       </c>
     </row>
     <row r="66" spans="1:65" ht="18" x14ac:dyDescent="0.25">
